--- a/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7497869830641017</v>
+        <v>0.7497869830641016</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.7829817599071488</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6996869911833653</v>
+        <v>0.6996603410346041</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7457148357175331</v>
+        <v>0.7505633491340769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7386139696360855</v>
+        <v>0.7356204212886396</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8011937240235465</v>
+        <v>0.7953757861770953</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8153328639335091</v>
+        <v>0.8128492891704618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7949590951655252</v>
+        <v>0.7924946904182252</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.7809153649131144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.761462462583644</v>
+        <v>0.7614624625836439</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6917257920174004</v>
+        <v>0.6992216551128049</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.74449233313768</v>
+        <v>0.7463674051745209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7335637830628172</v>
+        <v>0.7321014019349245</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7804238743269443</v>
+        <v>0.7857057650832859</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8108174573521532</v>
+        <v>0.8120341284073772</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7884112768757849</v>
+        <v>0.7859368678073937</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7291094552085706</v>
+        <v>0.7291094552085707</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7296810569889866</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6684874761107434</v>
+        <v>0.6707292287065721</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6827918552090765</v>
+        <v>0.6774429974613507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6955970895619792</v>
+        <v>0.6904342608338583</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7803494477262836</v>
+        <v>0.7769419673444212</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7736719983300617</v>
+        <v>0.7738923156641127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7669248295463695</v>
+        <v>0.7609808987252793</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.824738471846258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8140520988541543</v>
+        <v>0.8140520988541544</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7659399759671627</v>
+        <v>0.762518211132447</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7934729102662597</v>
+        <v>0.7940035178562774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7909274641786191</v>
+        <v>0.7908496432199759</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8364768203194182</v>
+        <v>0.8324430976793039</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8501881468231111</v>
+        <v>0.8509854565849726</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8335270524340954</v>
+        <v>0.8348759175509409</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7580873081089151</v>
+        <v>0.758087308108915</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7849595747119833</v>
+        <v>0.7849595747119832</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.7717269775152205</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7354709153955055</v>
+        <v>0.7341779410043384</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7682340038576638</v>
+        <v>0.767270846826256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7554029725988942</v>
+        <v>0.7548995677315962</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7800727758517279</v>
+        <v>0.7805492456586409</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8019436879044435</v>
+        <v>0.8022984401502752</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7846319552925275</v>
+        <v>0.7840063236589389</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>264069</v>
+        <v>264059</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>284410</v>
+        <v>286259</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>560462</v>
+        <v>558190</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>302379</v>
+        <v>300183</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>310961</v>
+        <v>310014</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>603217</v>
+        <v>601347</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>371444</v>
+        <v>375469</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>394801</v>
+        <v>395796</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>782916</v>
+        <v>781356</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>419074</v>
+        <v>421910</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>429973</v>
+        <v>430618</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>841454</v>
+        <v>838813</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>250181</v>
+        <v>251020</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>249132</v>
+        <v>247181</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>514132</v>
+        <v>510316</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>292046</v>
+        <v>290771</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>282292</v>
+        <v>282372</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>566852</v>
+        <v>562458</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>392493</v>
+        <v>390739</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>460151</v>
+        <v>460459</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>863972</v>
+        <v>863887</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>428638</v>
+        <v>426571</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>493041</v>
+        <v>493503</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>910506</v>
+        <v>911979</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1324638</v>
+        <v>1322310</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1426212</v>
+        <v>1424424</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2762928</v>
+        <v>2761087</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1404970</v>
+        <v>1405828</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1488793</v>
+        <v>1489452</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2869835</v>
+        <v>2867546</v>
       </c>
     </row>
     <row r="24">
